--- a/Git.xlsx
+++ b/Git.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xianing/Documents/Git/lynnx4869/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="10440"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="25600" windowHeight="14680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,13 +219,58 @@
   </si>
   <si>
     <t>leipeng950504@gmail.com</t>
+  </si>
+  <si>
+    <t>xiaoyalllove@163.com</t>
+  </si>
+  <si>
+    <t>肖用宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18075375969@163.com</t>
+  </si>
+  <si>
+    <t>朱云龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahedong@example.com</t>
+  </si>
+  <si>
+    <t>何栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王允泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>victorwangkk@126.com</t>
+  </si>
+  <si>
+    <t>“victorwangkk@126.com”</t>
+  </si>
+  <si>
+    <t>李时杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahlsjie@126.com</t>
+  </si>
+  <si>
+    <t>胡生波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13062780036@163.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +281,48 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -252,12 +346,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,9 +379,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,19 +689,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -714,7 +856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -722,7 +864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -730,7 +872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -741,7 +883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -749,7 +891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -763,7 +905,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -771,7 +913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -779,7 +921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -787,12 +929,61 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -800,4 +991,278 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>